--- a/survival_results/data/canine-processed_survival_data.xlsx
+++ b/survival_results/data/canine-processed_survival_data.xlsx
@@ -173,6 +173,9 @@
     <t xml:space="preserve">159</t>
   </si>
   <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sammy-21</t>
   </si>
   <si>
@@ -198,9 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown</t>
   </si>
   <si>
     <t xml:space="preserve">Mason-26</t>
@@ -676,7 +676,7 @@
         <v>44701</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>44701</v>
@@ -720,7 +720,7 @@
         <v>44510</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>44510</v>
@@ -764,7 +764,7 @@
         <v>44046</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>44046</v>
@@ -808,7 +808,7 @@
         <v>44051</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>44051</v>
@@ -852,7 +852,7 @@
         <v>44487</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>44487</v>
@@ -896,7 +896,7 @@
         <v>44113</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>44113</v>
@@ -940,7 +940,7 @@
         <v>44100</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>44100</v>
@@ -984,7 +984,7 @@
         <v>44090</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>44090</v>
@@ -1028,7 +1028,7 @@
         <v>44194</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>44194</v>
@@ -1072,7 +1072,7 @@
         <v>44631</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>44631</v>
@@ -1116,7 +1116,7 @@
         <v>44281</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>44281</v>
@@ -1160,7 +1160,7 @@
         <v>44854</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>44854</v>
@@ -1204,7 +1204,7 @@
         <v>44683</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>44683</v>
@@ -1248,7 +1248,7 @@
         <v>44441</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>44441</v>
@@ -1292,7 +1292,7 @@
         <v>44778</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>44778</v>
@@ -1321,36 +1321,36 @@
         <v>44608</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>44825</v>
+        <v>45358</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>44825</v>
+        <v>45358</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>44825</v>
+        <v>45358</v>
       </c>
       <c r="M17" t="n">
-        <v>376</v>
+        <v>909</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1359,7 +1359,7 @@
         <v>44776</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>44952</v>
@@ -1380,7 +1380,7 @@
         <v>45169</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>45169</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1403,7 +1403,7 @@
         <v>44505</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>44652</v>
@@ -1424,7 +1424,7 @@
         <v>44811</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>44811</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1468,7 +1468,7 @@
         <v>44571</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>44571</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -1491,13 +1491,13 @@
         <v>44550</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44823</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>45225</v>
+        <v>45425</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -1509,16 +1509,16 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>45225</v>
+        <v>45425</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>45225</v>
+        <v>45425</v>
       </c>
       <c r="M21" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -1535,7 +1535,7 @@
         <v>44811</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44924</v>
@@ -1547,7 +1547,7 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>44949</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L22" s="1" t="n">
         <v>44949</v>
@@ -1600,7 +1600,7 @@
         <v>45064</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L23" s="1" t="n">
         <v>45064</v>
@@ -1644,7 +1644,7 @@
         <v>44885</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L24" s="1" t="n">
         <v>44885</v>
@@ -1673,7 +1673,7 @@
         <v>45076</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>45300</v>
+        <v>45422</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
@@ -1685,16 +1685,16 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>45300</v>
+        <v>45422</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>45300</v>
+        <v>45422</v>
       </c>
       <c r="M25" t="n">
-        <v>370</v>
+        <v>492</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>45118</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L26" s="1" t="n">
         <v>45118</v>
@@ -1761,7 +1761,7 @@
         <v>45225</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>45278</v>
+        <v>45392</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -1773,16 +1773,16 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>45278</v>
+        <v>45392</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>45278</v>
+        <v>45392</v>
       </c>
       <c r="M27" t="n">
-        <v>230</v>
+        <v>344</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>45217</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>45281</v>
+        <v>45398</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>45281</v>
+        <v>45398</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>45281</v>
+        <v>45398</v>
       </c>
       <c r="M28" t="n">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>45210</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L29" s="1" t="n">
         <v>45210</v>
@@ -1893,31 +1893,31 @@
         <v>45222</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>45307</v>
+        <v>45315</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>45307</v>
+        <v>45315</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>45307</v>
+        <v>45315</v>
       </c>
       <c r="M30" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1936,7 +1936,9 @@
       <c r="E31" s="1" t="n">
         <v>45296</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="n">
+        <v>45377</v>
+      </c>
       <c r="G31" t="s">
         <v>17</v>
       </c>
@@ -1946,15 +1948,17 @@
       <c r="I31" t="b">
         <v>1</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="n">
+        <v>45377</v>
+      </c>
       <c r="K31" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>45310</v>
+        <v>45377</v>
       </c>
       <c r="M31" t="n">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -1976,7 +1980,9 @@
       <c r="E32" s="1" t="n">
         <v>45308</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="n">
+        <v>45413</v>
+      </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
@@ -1986,15 +1992,17 @@
       <c r="I32" t="b">
         <v>1</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="n">
+        <v>45413</v>
+      </c>
       <c r="K32" s="1" t="n">
-        <v>45310</v>
+        <v>45426</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>45310</v>
+        <v>45413</v>
       </c>
       <c r="M32" t="n">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
